--- a/public/templates/DIPLOMA_CVSU.xlsx
+++ b/public/templates/DIPLOMA_CVSU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\blockchainMOR\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956ADAFA-65A6-4EF4-8508-4EDC8CD3E730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7866E486-0B7F-404D-A8ED-7CAF5585EC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="990" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,6 @@
     <t>Certified Date</t>
   </si>
   <si>
-    <t>John Doe</t>
-  </si>
-  <si>
     <t>MASTER IN BUSINESS ADMINISTRATION</t>
   </si>
   <si>
@@ -44,6 +41,9 @@
   </si>
   <si>
     <t>Course</t>
+  </si>
+  <si>
+    <t>JUAN DELA CRUZ</t>
   </si>
 </sst>
 </file>
@@ -434,7 +434,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -456,21 +456,21 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -479,7 +479,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C1 D2 A2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C1 D2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>